--- a/www/export/results.xlsx
+++ b/www/export/results.xlsx
@@ -26,17 +26,20 @@
     <t>Дата загрузки</t>
   </si>
   <si>
-    <t>Вес разгрузки</t>
+    <t>Стоимость</t>
   </si>
   <si>
-    <t>Дата разгрузки</t>
+    <t>28.01.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_-&quot;грн.&quot;"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <b val="0"/>
@@ -74,10 +77,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -86,6 +95,12 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,10 +401,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,31 +412,42 @@
     <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="D2" s="7">
+        <v>231000</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
